--- a/BackendAPIOutsmart/src/test/resources/TestDataOutsmart.xlsx
+++ b/BackendAPIOutsmart/src/test/resources/TestDataOutsmart.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -58,6 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -442,31 +443,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>7676565456</v>
       </c>
       <c r="D2" s="1" t="s">

--- a/BackendAPIOutsmart/src/test/resources/TestDataOutsmart.xlsx
+++ b/BackendAPIOutsmart/src/test/resources/TestDataOutsmart.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29518"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29523"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58752A9F-5586-49DA-8888-E4047CB380C5}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDED196A-E2CE-435C-8A43-E519834B6EE7}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>FirstName</t>
   </si>
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
@@ -443,7 +443,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0"/>
+    <col min="3" max="3" customWidth="true" width="20.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -472,6 +472,11 @@
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
